--- a/input/similarity_c_c_m.xlsx
+++ b/input/similarity_c_c_m.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\feita1\Uni\PhD\Projects\French keyboard\Optimization\optimizing-the-french-keyboard\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="22755" windowHeight="9750"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="178">
   <si>
     <t>space_nb</t>
   </si>
@@ -545,6 +550,12 @@
   <si>
     <t>Ω</t>
   </si>
+  <si>
+    <t>≤</t>
+  </si>
+  <si>
+    <t>≥</t>
+  </si>
 </sst>
 </file>
 
@@ -629,6 +640,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -676,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,7 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15359,7 +15375,7 @@
     </row>
     <row r="78" spans="1:177" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -15542,7 +15558,7 @@
     </row>
     <row r="79" spans="1:177" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
